--- a/Source/ListOfExchangeItems.xlsx
+++ b/Source/ListOfExchangeItems.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -312,13 +311,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +615,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,16 +627,16 @@
     <col min="5" max="5" width="29" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1">
+    <row r="1" spans="1:5" s="19" customFormat="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1">
       <c r="A2" s="8"/>
